--- a/biology/Zoologie/Glyptodontopelta/Glyptodontopelta.xlsx
+++ b/biology/Zoologie/Glyptodontopelta/Glyptodontopelta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Glyptodontopelta mimus
-Glyptodontopelta (signifiant « bouclier de Glyptodon ») est un genre éteint de dinosaures Nodosauridae du Nouveau-Mexique (États-Unis) qui a vécu au Crétacé supérieur (Maastrichtien inférieur à supérieur, 69 à 66 Ma) dans ce qui est aujourd'hui le membre Naashoibito de la formation d'Ojo Alamo (en)[1]. Le type et l'unique espèce, Glyptodontopelta mimus, est connu grâce à de nombreux spécimens qui consistent en des ostéodermes, une denture, une supra-orbite et des fragments d'os[2]. Il a été nommé en 2000 par Tracy Lee Ford (d)[1]. Edmontonia australis est un synonyme junior de Glyptodontopelta[3].
+Glyptodontopelta (signifiant « bouclier de Glyptodon ») est un genre éteint de dinosaures Nodosauridae du Nouveau-Mexique (États-Unis) qui a vécu au Crétacé supérieur (Maastrichtien inférieur à supérieur, 69 à 66 Ma) dans ce qui est aujourd'hui le membre Naashoibito de la formation d'Ojo Alamo (en). Le type et l'unique espèce, Glyptodontopelta mimus, est connu grâce à de nombreux spécimens qui consistent en des ostéodermes, une denture, une supra-orbite et des fragments d'os. Il a été nommé en 2000 par Tracy Lee Ford (d). Edmontonia australis est un synonyme junior de Glyptodontopelta.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Découverte et dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des fossiles de Glyptodontopelta, constitués uniquement d'une armure osseuse, ont été découverts dans l'État américain du Nouveau-Mexique. L'espèce type, Glyptodontopelta mimus, a été décrite par Tracy Lee Ford en 2000[1]. L'holotype, USNM 8610, consiste en trois morceaux d'ostéodermes plats fusionnés, trouvés dans la Formation Ojo Alamo du Campanien-Maastrichtien. Le spécimen connu le plus complet, SMP VP-1580, comprend la partie distale d'une mandibule gauche (dentaire), un supraorbitaire gauche, et plus d'une centaine d'ostéodermes et de fragments[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des fossiles de Glyptodontopelta, constitués uniquement d'une armure osseuse, ont été découverts dans l'État américain du Nouveau-Mexique. L'espèce type, Glyptodontopelta mimus, a été décrite par Tracy Lee Ford en 2000. L'holotype, USNM 8610, consiste en trois morceaux d'ostéodermes plats fusionnés, trouvés dans la Formation Ojo Alamo du Campanien-Maastrichtien. Le spécimen connu le plus complet, SMP VP-1580, comprend la partie distale d'une mandibule gauche (dentaire), un supraorbitaire gauche, et plus d'une centaine d'ostéodermes et de fragments.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a été jugé comme un nom douteux, un nomen dubium, dans une revue de 2004 sur les Ankylosauria[4], mais une publication de 2008 par Michael Burns a confirmé avec Ford que son armure était suffisamment distinctive pour le considérer comme valide. Burns a également assigné Glyptodontopelta aux Nodosauridae[5] - rejetant les Stegopeltinae de Ford - et a proposé qu'un autre taxon blindé du Nouveau-Mexique, Edmontonia australis[6], soit un synonyme de Glyptodontopelta mimus, sur la base d'une analyse de la taille et de la forme de l'armure[3],.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été jugé comme un nom douteux, un nomen dubium, dans une revue de 2004 sur les Ankylosauria, mais une publication de 2008 par Michael Burns a confirmé avec Ford que son armure était suffisamment distinctive pour le considérer comme valide. Burns a également assigné Glyptodontopelta aux Nodosauridae - rejetant les Stegopeltinae de Ford - et a proposé qu'un autre taxon blindé du Nouveau-Mexique, Edmontonia australis, soit un synonyme de Glyptodontopelta mimus, sur la base d'une analyse de la taille et de la forme de l'armure,.
 </t>
         </is>
       </c>
